--- a/FEE_COM_SUSPENSION.xlsx
+++ b/FEE_COM_SUSPENSION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamunur.shawon\PycharmProjects\testpro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07619BBB-B132-4382-ACC1-EE7EA2CD01E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13F7F8A-4E8D-4EF4-8532-9FB004881A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SERVICE_NUMBER</t>
   </si>
   <si>
     <t>Status_Message</t>
+  </si>
+  <si>
+    <t>2415</t>
+  </si>
+  <si>
+    <t>13371</t>
+  </si>
+  <si>
+    <t>27590</t>
   </si>
 </sst>
 </file>
@@ -81,10 +90,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -396,7 +414,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -409,11 +427,813 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2414</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>713379261</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>713379272</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>713379273</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>730026931</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>713379251</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>713379254</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>713379255</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>713379252</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>730027082</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>713379386</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>713379387</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>777791693</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>777791687</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>730027180</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>730027182</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>730027187</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>713379374</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>713379380</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>713379381</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>713379375</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>730027265</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>730026290</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>713379382</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>713379384</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>730027258</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>730026270</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>730027193</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>730027195</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>730027197</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>713379304</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>713379306</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>713379308</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>713379376</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>730027163</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>713379369</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>713379372</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>713379371</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>709962317</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>713379310</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>713379367</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>730793142</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>730793132</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>730027149</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>730027060</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>713379358</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>713379404</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>730027294</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>322838640</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>730027281</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>777791290</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>729065342</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>313426778</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>729065215</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>729064956</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>313427004</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>313427006</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>730027005</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>322838652</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>730027192</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>313427009</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>777791347</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>730793060</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>730793074</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>730793185</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>713092970</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>713379396</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>777791566</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>713379332</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>713379409</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>713379260</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>713379391</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>713379388</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>730793139</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>729064945</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>313426856</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>730793005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>730793047</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>730793089</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>730793079</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>730793171</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>730027015</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>730027288</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>713379324</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>730027011</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>713379228</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>713379407</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>713379408</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>713379262</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>713379410</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>713379403</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>730793154</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>713379293</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>713379291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>713379326</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>713379399</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>777791643</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>730026913</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>713379366</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>313427010</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>777791316</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>322838642</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>730793056</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>730026311</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>713379307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>313426923</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>313426956</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>713379337</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>713379377</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>713379379</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>322838694</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>730793039</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>709334286</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>730024559</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>713379225</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>730027292</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>713379323</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>713488896</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>777791464</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>730027282</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>730027286</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>713379327</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>730024587</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>730027025</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>713379271</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>777791699</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>730026298</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>729065197</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>322838690</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>313426883</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>313426842</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>